--- a/code/results_cellsMejorado/results_cec2017_10.xlsx
+++ b/code/results_cellsMejorado/results_cec2017_10.xlsx
@@ -579,94 +579,94 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>364628520</v>
+        <v>173259300</v>
       </c>
       <c r="D2">
-        <v>66192386.5</v>
+        <v>12759860</v>
       </c>
       <c r="E2">
-        <v>25686.39</v>
+        <v>18816.09</v>
       </c>
       <c r="F2">
-        <v>39.180711</v>
+        <v>55.48805</v>
       </c>
       <c r="G2">
-        <v>37.938855</v>
+        <v>44.53053</v>
       </c>
       <c r="H2">
-        <v>11.2853061</v>
+        <v>19.28081</v>
       </c>
       <c r="I2">
-        <v>72.654719</v>
+        <v>64.70133999999999</v>
       </c>
       <c r="J2">
-        <v>39.339141</v>
+        <v>44.34971</v>
       </c>
       <c r="K2">
-        <v>326.421492</v>
+        <v>194.59</v>
       </c>
       <c r="L2">
-        <v>1219.4805</v>
+        <v>1338.895</v>
       </c>
       <c r="M2">
-        <v>461.17715</v>
+        <v>646.8469999999999</v>
       </c>
       <c r="N2">
-        <v>21641050.6</v>
+        <v>22526430</v>
       </c>
       <c r="O2">
-        <v>2358269.313</v>
+        <v>2525878</v>
       </c>
       <c r="P2">
-        <v>109365.9212</v>
+        <v>328976.6</v>
       </c>
       <c r="Q2">
-        <v>295748.2295</v>
+        <v>104273.9</v>
       </c>
       <c r="R2">
-        <v>388.78768</v>
+        <v>594.974</v>
       </c>
       <c r="S2">
-        <v>120.213902</v>
+        <v>220.6471</v>
       </c>
       <c r="T2">
-        <v>1378822.764</v>
+        <v>8916514</v>
       </c>
       <c r="U2">
-        <v>994841.9060000001</v>
+        <v>841748.2</v>
       </c>
       <c r="V2">
-        <v>122.613134</v>
+        <v>116.5907</v>
       </c>
       <c r="W2">
-        <v>238.28523</v>
+        <v>236.3216</v>
       </c>
       <c r="X2">
-        <v>151.08621</v>
+        <v>227.1747</v>
       </c>
       <c r="Y2">
-        <v>353.6081399999999</v>
+        <v>353.5924</v>
       </c>
       <c r="Z2">
-        <v>256.0259300000001</v>
+        <v>295.0289000000001</v>
       </c>
       <c r="AA2">
-        <v>465.6856</v>
+        <v>511.8325000000001</v>
       </c>
       <c r="AB2">
-        <v>478.09822</v>
+        <v>726.8108000000001</v>
       </c>
       <c r="AC2">
-        <v>422.2171099999999</v>
+        <v>424.5641999999999</v>
       </c>
       <c r="AD2">
-        <v>644.32491</v>
+        <v>594.9071999999999</v>
       </c>
       <c r="AE2">
-        <v>396.99728</v>
+        <v>422.1738999999999</v>
       </c>
       <c r="AF2">
-        <v>1844366.3</v>
+        <v>2762268</v>
       </c>
       <c r="AG2">
         <v>10</v>
@@ -680,94 +680,94 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>146478416</v>
+        <v>102340200</v>
       </c>
       <c r="D3">
-        <v>20323617.7</v>
+        <v>12702960</v>
       </c>
       <c r="E3">
-        <v>24528.044</v>
+        <v>18751.84</v>
       </c>
       <c r="F3">
-        <v>18.5226884</v>
+        <v>14.17924</v>
       </c>
       <c r="G3">
-        <v>32.766355</v>
+        <v>43.06205</v>
       </c>
       <c r="H3">
-        <v>7.068612300000001</v>
+        <v>9.335131000000002</v>
       </c>
       <c r="I3">
-        <v>62.641187</v>
+        <v>58.83672</v>
       </c>
       <c r="J3">
-        <v>34.314792</v>
+        <v>28.60948</v>
       </c>
       <c r="K3">
-        <v>127.138975</v>
+        <v>143.6481</v>
       </c>
       <c r="L3">
-        <v>1065.39757</v>
+        <v>1011.548</v>
       </c>
       <c r="M3">
-        <v>339.06976</v>
+        <v>498.8224</v>
       </c>
       <c r="N3">
-        <v>10476112</v>
+        <v>6352176</v>
       </c>
       <c r="O3">
-        <v>1370136.666</v>
+        <v>1683639</v>
       </c>
       <c r="P3">
-        <v>31553.6145</v>
+        <v>51995.27</v>
       </c>
       <c r="Q3">
-        <v>229275.2201</v>
+        <v>104254.8</v>
       </c>
       <c r="R3">
-        <v>307.35569</v>
+        <v>402.2102</v>
       </c>
       <c r="S3">
-        <v>88.76278800000001</v>
+        <v>135.0352</v>
       </c>
       <c r="T3">
-        <v>633344.0430000001</v>
+        <v>437668.9</v>
       </c>
       <c r="U3">
-        <v>642672.5769999999</v>
+        <v>841747.4000000001</v>
       </c>
       <c r="V3">
-        <v>85.38175500000001</v>
+        <v>35.64001</v>
       </c>
       <c r="W3">
-        <v>224.26592</v>
+        <v>194.2462</v>
       </c>
       <c r="X3">
-        <v>129.18027</v>
+        <v>138.3054</v>
       </c>
       <c r="Y3">
-        <v>336.0685</v>
+        <v>345.286</v>
       </c>
       <c r="Z3">
-        <v>244.9111</v>
+        <v>250.4362</v>
       </c>
       <c r="AA3">
-        <v>449.21212</v>
+        <v>454.9150000000001</v>
       </c>
       <c r="AB3">
-        <v>425.54648</v>
+        <v>538.8886000000001</v>
       </c>
       <c r="AC3">
-        <v>413.76686</v>
+        <v>418.674</v>
       </c>
       <c r="AD3">
-        <v>572.99555</v>
+        <v>506.8597</v>
       </c>
       <c r="AE3">
-        <v>364.92732</v>
+        <v>347.6885</v>
       </c>
       <c r="AF3">
-        <v>1092536.55</v>
+        <v>2383187</v>
       </c>
       <c r="AG3">
         <v>10</v>
@@ -781,94 +781,94 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>115237422</v>
+        <v>99709880</v>
       </c>
       <c r="D4">
-        <v>14535435.2</v>
+        <v>4743601</v>
       </c>
       <c r="E4">
-        <v>23656.18</v>
+        <v>18682.65</v>
       </c>
       <c r="F4">
-        <v>16.7821654</v>
+        <v>11.86382</v>
       </c>
       <c r="G4">
-        <v>28.238329</v>
+        <v>26.54574</v>
       </c>
       <c r="H4">
-        <v>5.9083609</v>
+        <v>5.980806</v>
       </c>
       <c r="I4">
-        <v>57.052387</v>
+        <v>57.82505999999999</v>
       </c>
       <c r="J4">
-        <v>32.582014</v>
+        <v>24.50081</v>
       </c>
       <c r="K4">
-        <v>82.05158899999999</v>
+        <v>46.70378</v>
       </c>
       <c r="L4">
-        <v>951.3389000000001</v>
+        <v>1011.548</v>
       </c>
       <c r="M4">
-        <v>301.19217</v>
+        <v>477.6073</v>
       </c>
       <c r="N4">
-        <v>8470221.9</v>
+        <v>6351893</v>
       </c>
       <c r="O4">
-        <v>1275612.876</v>
+        <v>684846.4000000001</v>
       </c>
       <c r="P4">
-        <v>26876.4975</v>
+        <v>45387.51</v>
       </c>
       <c r="Q4">
-        <v>188801.5042</v>
+        <v>1139.253</v>
       </c>
       <c r="R4">
-        <v>233.72069</v>
+        <v>86.5724</v>
       </c>
       <c r="S4">
-        <v>74.590496</v>
+        <v>77.21408999999998</v>
       </c>
       <c r="T4">
-        <v>581792.6459999999</v>
+        <v>437668</v>
       </c>
       <c r="U4">
-        <v>642671.9209999999</v>
+        <v>766946.7000000001</v>
       </c>
       <c r="V4">
-        <v>81.44770800000001</v>
+        <v>35.64001</v>
       </c>
       <c r="W4">
-        <v>219.8236699999999</v>
+        <v>183.5462</v>
       </c>
       <c r="X4">
-        <v>124.4776</v>
+        <v>122.6075</v>
       </c>
       <c r="Y4">
-        <v>332.64811</v>
+        <v>344.0461999999999</v>
       </c>
       <c r="Z4">
-        <v>239.14759</v>
+        <v>216.7871</v>
       </c>
       <c r="AA4">
-        <v>440.59383</v>
+        <v>432.5508</v>
       </c>
       <c r="AB4">
-        <v>404.27846</v>
+        <v>504.8414000000001</v>
       </c>
       <c r="AC4">
-        <v>410.1971</v>
+        <v>403.6651000000001</v>
       </c>
       <c r="AD4">
-        <v>542.6522600000001</v>
+        <v>497.0481</v>
       </c>
       <c r="AE4">
-        <v>351.40707</v>
+        <v>311.6952999999999</v>
       </c>
       <c r="AF4">
-        <v>921950.1625</v>
+        <v>1392794</v>
       </c>
       <c r="AG4">
         <v>10</v>
@@ -882,94 +882,94 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>96866638</v>
+        <v>40825740</v>
       </c>
       <c r="D5">
-        <v>12293957.6</v>
+        <v>348628</v>
       </c>
       <c r="E5">
-        <v>22645.261</v>
+        <v>18682.65</v>
       </c>
       <c r="F5">
-        <v>12.6423914</v>
+        <v>8.268450999999999</v>
       </c>
       <c r="G5">
-        <v>25.424392</v>
+        <v>22.17082</v>
       </c>
       <c r="H5">
-        <v>5.0075322</v>
+        <v>3.406975</v>
       </c>
       <c r="I5">
-        <v>55.049378</v>
+        <v>42.75053</v>
       </c>
       <c r="J5">
-        <v>28.719079</v>
+        <v>19.64217</v>
       </c>
       <c r="K5">
-        <v>75.516565</v>
+        <v>32.23061999999999</v>
       </c>
       <c r="L5">
-        <v>867.5281699999999</v>
+        <v>951.1416999999999</v>
       </c>
       <c r="M5">
-        <v>265.36559</v>
+        <v>208.8712</v>
       </c>
       <c r="N5">
-        <v>7937993.4</v>
+        <v>2630471</v>
       </c>
       <c r="O5">
-        <v>712085.893</v>
+        <v>78594.41000000002</v>
       </c>
       <c r="P5">
-        <v>26876.4975</v>
+        <v>35774.71999999999</v>
       </c>
       <c r="Q5">
-        <v>95130.96059999999</v>
+        <v>1135.819</v>
       </c>
       <c r="R5">
-        <v>162.814532</v>
+        <v>86.29996000000001</v>
       </c>
       <c r="S5">
-        <v>70.90491400000001</v>
+        <v>57.80164000000001</v>
       </c>
       <c r="T5">
-        <v>497826.698</v>
+        <v>88235.56000000001</v>
       </c>
       <c r="U5">
-        <v>616393.527</v>
+        <v>2224.802</v>
       </c>
       <c r="V5">
-        <v>64.469677</v>
+        <v>26.47215</v>
       </c>
       <c r="W5">
-        <v>218.24581</v>
+        <v>146.2582</v>
       </c>
       <c r="X5">
-        <v>122.50494</v>
+        <v>120.165</v>
       </c>
       <c r="Y5">
-        <v>331.72429</v>
+        <v>333.7716</v>
       </c>
       <c r="Z5">
-        <v>223.11793</v>
+        <v>214.74</v>
       </c>
       <c r="AA5">
-        <v>435.06337</v>
+        <v>424.5437000000001</v>
       </c>
       <c r="AB5">
-        <v>372.48287</v>
+        <v>445.1985000000001</v>
       </c>
       <c r="AC5">
-        <v>409.55829</v>
+        <v>402.9674</v>
       </c>
       <c r="AD5">
-        <v>520.33288</v>
+        <v>465.2560999999999</v>
       </c>
       <c r="AE5">
-        <v>342.30129</v>
+        <v>280.6287</v>
       </c>
       <c r="AF5">
-        <v>817438.6328</v>
+        <v>615699.2999999999</v>
       </c>
       <c r="AG5">
         <v>10</v>
@@ -983,94 +983,94 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>87993188</v>
+        <v>6301832</v>
       </c>
       <c r="D6">
-        <v>10006339.6</v>
+        <v>152863</v>
       </c>
       <c r="E6">
-        <v>22263.917</v>
+        <v>18103.57</v>
       </c>
       <c r="F6">
-        <v>11.9965604</v>
+        <v>6.80982</v>
       </c>
       <c r="G6">
-        <v>25.090344</v>
+        <v>10.50056</v>
       </c>
       <c r="H6">
-        <v>4.5680456</v>
+        <v>2.349938000000001</v>
       </c>
       <c r="I6">
-        <v>55.049378</v>
+        <v>35.85303</v>
       </c>
       <c r="J6">
-        <v>28.4797</v>
+        <v>17.57039</v>
       </c>
       <c r="K6">
-        <v>60.76004300000001</v>
+        <v>16.16987</v>
       </c>
       <c r="L6">
-        <v>866.50774</v>
+        <v>630.7738000000001</v>
       </c>
       <c r="M6">
-        <v>263.26293</v>
+        <v>189.1333</v>
       </c>
       <c r="N6">
-        <v>7417448.1</v>
+        <v>458614.7000000001</v>
       </c>
       <c r="O6">
-        <v>712085.893</v>
+        <v>38211.58999999999</v>
       </c>
       <c r="P6">
-        <v>26876.4975</v>
+        <v>24597.52</v>
       </c>
       <c r="Q6">
-        <v>71282.58769999999</v>
+        <v>1132.082</v>
       </c>
       <c r="R6">
-        <v>152.440279</v>
+        <v>61.40755</v>
       </c>
       <c r="S6">
-        <v>70.15441200000001</v>
+        <v>16.56282</v>
       </c>
       <c r="T6">
-        <v>497826.694</v>
+        <v>39754.03000000001</v>
       </c>
       <c r="U6">
-        <v>616393.454</v>
+        <v>2224.375</v>
       </c>
       <c r="V6">
-        <v>62.50095200000001</v>
+        <v>20.66277</v>
       </c>
       <c r="W6">
-        <v>217.83654</v>
+        <v>136.4914</v>
       </c>
       <c r="X6">
-        <v>121.10817</v>
+        <v>112.3767</v>
       </c>
       <c r="Y6">
-        <v>330.35507</v>
+        <v>324.7183999999999</v>
       </c>
       <c r="Z6">
-        <v>211.1549</v>
+        <v>212.5768</v>
       </c>
       <c r="AA6">
-        <v>431.8846600000001</v>
+        <v>413.331</v>
       </c>
       <c r="AB6">
-        <v>360.77014</v>
+        <v>317.3582000000001</v>
       </c>
       <c r="AC6">
-        <v>409.30977</v>
+        <v>393.0960999999999</v>
       </c>
       <c r="AD6">
-        <v>506.46216</v>
+        <v>444.8126000000001</v>
       </c>
       <c r="AE6">
-        <v>337.66532</v>
+        <v>280.136</v>
       </c>
       <c r="AF6">
-        <v>817438.6328</v>
+        <v>101603.4</v>
       </c>
       <c r="AG6">
         <v>10</v>
@@ -1084,94 +1084,94 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>56368755</v>
+        <v>5878546.7</v>
       </c>
       <c r="D7">
-        <v>2398927.1</v>
+        <v>63875.5</v>
       </c>
       <c r="E7">
-        <v>22263.917</v>
+        <v>13923.1276</v>
       </c>
       <c r="F7">
-        <v>11.0567274</v>
+        <v>6.80982</v>
       </c>
       <c r="G7">
-        <v>23.004195</v>
+        <v>10.50056</v>
       </c>
       <c r="H7">
-        <v>4.3199527</v>
+        <v>2.0527604</v>
       </c>
       <c r="I7">
-        <v>52.88884300000001</v>
+        <v>35.51974999999999</v>
       </c>
       <c r="J7">
-        <v>24.30951</v>
+        <v>16.806122</v>
       </c>
       <c r="K7">
-        <v>33.26001799999999</v>
+        <v>12.0645398</v>
       </c>
       <c r="L7">
-        <v>732.26043</v>
+        <v>542.16895</v>
       </c>
       <c r="M7">
-        <v>94.04259099999999</v>
+        <v>84.91696199999998</v>
       </c>
       <c r="N7">
-        <v>4169741.4</v>
+        <v>458614.7000000001</v>
       </c>
       <c r="O7">
-        <v>308227.937</v>
+        <v>20977.9063</v>
       </c>
       <c r="P7">
-        <v>13524.0728</v>
+        <v>7345.2186</v>
       </c>
       <c r="Q7">
-        <v>34541.1159</v>
+        <v>988.77836</v>
       </c>
       <c r="R7">
-        <v>121.281379</v>
+        <v>53.80029</v>
       </c>
       <c r="S7">
-        <v>51.41152899999999</v>
+        <v>16.158437</v>
       </c>
       <c r="T7">
-        <v>276050.564</v>
+        <v>32984.338</v>
       </c>
       <c r="U7">
-        <v>206989.176</v>
+        <v>2125.8427</v>
       </c>
       <c r="V7">
-        <v>50.129465</v>
+        <v>19.80549</v>
       </c>
       <c r="W7">
-        <v>214.57048</v>
+        <v>130.53878</v>
       </c>
       <c r="X7">
-        <v>116.70735</v>
+        <v>101.395944</v>
       </c>
       <c r="Y7">
-        <v>328.13981</v>
+        <v>319.5612600000001</v>
       </c>
       <c r="Z7">
-        <v>211.1549</v>
+        <v>212.42041</v>
       </c>
       <c r="AA7">
-        <v>424.37505</v>
+        <v>383.90977</v>
       </c>
       <c r="AB7">
-        <v>274.4964</v>
+        <v>281.56003</v>
       </c>
       <c r="AC7">
-        <v>405.7577699999999</v>
+        <v>393.0960999999999</v>
       </c>
       <c r="AD7">
-        <v>390.74722</v>
+        <v>404.57622</v>
       </c>
       <c r="AE7">
-        <v>304.19291</v>
+        <v>276.08951</v>
       </c>
       <c r="AF7">
-        <v>224523.3168</v>
+        <v>69757.667</v>
       </c>
       <c r="AG7">
         <v>10</v>
@@ -1185,94 +1185,94 @@
         <v>30</v>
       </c>
       <c r="C8">
-        <v>39350767</v>
+        <v>5878546.7</v>
       </c>
       <c r="D8">
-        <v>893551.4</v>
+        <v>46853.5</v>
       </c>
       <c r="E8">
-        <v>20584.104</v>
+        <v>13521.3796</v>
       </c>
       <c r="F8">
-        <v>8.985069599999999</v>
+        <v>6.80982</v>
       </c>
       <c r="G8">
-        <v>21.025023</v>
+        <v>10.50056</v>
       </c>
       <c r="H8">
-        <v>3.9240116</v>
+        <v>2.0527604</v>
       </c>
       <c r="I8">
-        <v>47.319452</v>
+        <v>35.51974999999999</v>
       </c>
       <c r="J8">
-        <v>22.578071</v>
+        <v>16.806122</v>
       </c>
       <c r="K8">
-        <v>26.717806</v>
+        <v>10.9856631</v>
       </c>
       <c r="L8">
-        <v>636.81156</v>
+        <v>539.09449</v>
       </c>
       <c r="M8">
-        <v>78.10773</v>
+        <v>69.368934</v>
       </c>
       <c r="N8">
-        <v>3488449.4</v>
+        <v>458614.7000000001</v>
       </c>
       <c r="O8">
-        <v>255813.457</v>
+        <v>20977.7973</v>
       </c>
       <c r="P8">
-        <v>9197.484</v>
+        <v>2385.87944</v>
       </c>
       <c r="Q8">
-        <v>9918.952300000001</v>
+        <v>904.4357</v>
       </c>
       <c r="R8">
-        <v>98.22677900000001</v>
+        <v>51.441531</v>
       </c>
       <c r="S8">
-        <v>44.81657</v>
+        <v>15.504149</v>
       </c>
       <c r="T8">
-        <v>156274.154</v>
+        <v>30803.45</v>
       </c>
       <c r="U8">
-        <v>36483.55254</v>
+        <v>1706.57031</v>
       </c>
       <c r="V8">
-        <v>45.860584</v>
+        <v>18.973864</v>
       </c>
       <c r="W8">
-        <v>209.87835</v>
+        <v>130.24877</v>
       </c>
       <c r="X8">
-        <v>111.972918</v>
+        <v>94.23572600000001</v>
       </c>
       <c r="Y8">
-        <v>325.90307</v>
+        <v>319.5612600000001</v>
       </c>
       <c r="Z8">
-        <v>175.34729</v>
+        <v>210.49296</v>
       </c>
       <c r="AA8">
-        <v>403.53192</v>
+        <v>364.3950800000001</v>
       </c>
       <c r="AB8">
-        <v>273.6736500000001</v>
+        <v>281.56003</v>
       </c>
       <c r="AC8">
-        <v>404.01924</v>
+        <v>393.0960999999999</v>
       </c>
       <c r="AD8">
-        <v>388.06813</v>
+        <v>388.46049</v>
       </c>
       <c r="AE8">
-        <v>283.8817</v>
+        <v>275.78236</v>
       </c>
       <c r="AF8">
-        <v>130982.6598</v>
+        <v>48363.991</v>
       </c>
       <c r="AG8">
         <v>10</v>
@@ -1286,94 +1286,94 @@
         <v>40</v>
       </c>
       <c r="C9">
-        <v>29336805</v>
+        <v>5878546.7</v>
       </c>
       <c r="D9">
-        <v>585150.8</v>
+        <v>46652.5</v>
       </c>
       <c r="E9">
-        <v>16355.8383</v>
+        <v>10776.6093</v>
       </c>
       <c r="F9">
-        <v>8.875213299999999</v>
+        <v>6.80982</v>
       </c>
       <c r="G9">
-        <v>19.919116</v>
+        <v>10.50056</v>
       </c>
       <c r="H9">
-        <v>3.8367837</v>
+        <v>2.0527604</v>
       </c>
       <c r="I9">
-        <v>44.857972</v>
+        <v>35.51974999999999</v>
       </c>
       <c r="J9">
-        <v>20.874974</v>
+        <v>16.806122</v>
       </c>
       <c r="K9">
-        <v>25.225825</v>
+        <v>10.9856631</v>
       </c>
       <c r="L9">
-        <v>594.32846</v>
+        <v>539.09449</v>
       </c>
       <c r="M9">
-        <v>70.85291100000001</v>
+        <v>47.208091</v>
       </c>
       <c r="N9">
-        <v>2715018.1</v>
+        <v>458614.7000000001</v>
       </c>
       <c r="O9">
-        <v>173451.847</v>
+        <v>18643.0833</v>
       </c>
       <c r="P9">
-        <v>2585.54801</v>
+        <v>1740.67511</v>
       </c>
       <c r="Q9">
-        <v>7145.466100000001</v>
+        <v>875.8667000000002</v>
       </c>
       <c r="R9">
-        <v>85.29909400000001</v>
+        <v>46.585707</v>
       </c>
       <c r="S9">
-        <v>40.69835999999999</v>
+        <v>15.504149</v>
       </c>
       <c r="T9">
-        <v>111239.175</v>
+        <v>30803.45</v>
       </c>
       <c r="U9">
-        <v>4224.61575</v>
+        <v>1539.24099</v>
       </c>
       <c r="V9">
-        <v>42.83665000000001</v>
+        <v>18.973864</v>
       </c>
       <c r="W9">
-        <v>166.13948</v>
+        <v>129.08682</v>
       </c>
       <c r="X9">
-        <v>90.29026999999999</v>
+        <v>91.83286600000001</v>
       </c>
       <c r="Y9">
-        <v>325.10873</v>
+        <v>319.5612600000001</v>
       </c>
       <c r="Z9">
-        <v>171.29874</v>
+        <v>210.49296</v>
       </c>
       <c r="AA9">
-        <v>391.29543</v>
+        <v>364.3950800000001</v>
       </c>
       <c r="AB9">
-        <v>253.60829</v>
+        <v>279.41753</v>
       </c>
       <c r="AC9">
-        <v>402.61533</v>
+        <v>393.0960999999999</v>
       </c>
       <c r="AD9">
-        <v>374.0126</v>
+        <v>386.00204</v>
       </c>
       <c r="AE9">
-        <v>278.75152</v>
+        <v>275.78236</v>
       </c>
       <c r="AF9">
-        <v>55990.47379999999</v>
+        <v>48041.962</v>
       </c>
       <c r="AG9">
         <v>10</v>
@@ -1387,94 +1387,94 @@
         <v>50</v>
       </c>
       <c r="C10">
-        <v>29238782</v>
+        <v>5878546.7</v>
       </c>
       <c r="D10">
-        <v>114950</v>
+        <v>42334.5</v>
       </c>
       <c r="E10">
-        <v>15520.9243</v>
+        <v>10027.4303</v>
       </c>
       <c r="F10">
-        <v>8.483177099999999</v>
+        <v>6.80982</v>
       </c>
       <c r="G10">
-        <v>18.938579</v>
+        <v>10.50056</v>
       </c>
       <c r="H10">
-        <v>3.6122694</v>
+        <v>2.0527604</v>
       </c>
       <c r="I10">
-        <v>42.431746</v>
+        <v>35.51974999999999</v>
       </c>
       <c r="J10">
-        <v>20.803572</v>
+        <v>16.806122</v>
       </c>
       <c r="K10">
-        <v>20.49044</v>
+        <v>10.9856631</v>
       </c>
       <c r="L10">
-        <v>561.25874</v>
+        <v>539.09449</v>
       </c>
       <c r="M10">
-        <v>61.73190899999999</v>
+        <v>42.446927</v>
       </c>
       <c r="N10">
-        <v>2590059.9</v>
+        <v>458614.7000000001</v>
       </c>
       <c r="O10">
-        <v>150539.457</v>
+        <v>17353.6483</v>
       </c>
       <c r="P10">
-        <v>1601.54489</v>
+        <v>1508.36298</v>
       </c>
       <c r="Q10">
-        <v>6255.85065</v>
+        <v>875.8667000000002</v>
       </c>
       <c r="R10">
-        <v>85.29909400000001</v>
+        <v>46.585707</v>
       </c>
       <c r="S10">
-        <v>39.372401</v>
+        <v>15.504149</v>
       </c>
       <c r="T10">
-        <v>89528.62499999999</v>
+        <v>27520.227</v>
       </c>
       <c r="U10">
-        <v>2496.39947</v>
+        <v>1539.24099</v>
       </c>
       <c r="V10">
-        <v>39.544601</v>
+        <v>18.973864</v>
       </c>
       <c r="W10">
-        <v>157.32726</v>
+        <v>128.75499</v>
       </c>
       <c r="X10">
-        <v>83.55788</v>
+        <v>91.83286600000001</v>
       </c>
       <c r="Y10">
-        <v>323.4433</v>
+        <v>319.5612600000001</v>
       </c>
       <c r="Z10">
-        <v>167.88229</v>
+        <v>209.67973</v>
       </c>
       <c r="AA10">
-        <v>390.21117</v>
+        <v>364.3950800000001</v>
       </c>
       <c r="AB10">
-        <v>251.08755</v>
+        <v>277.21632</v>
       </c>
       <c r="AC10">
-        <v>401.61316</v>
+        <v>393.0960999999999</v>
       </c>
       <c r="AD10">
-        <v>372.5269</v>
+        <v>383.40212</v>
       </c>
       <c r="AE10">
-        <v>275.16865</v>
+        <v>275.78236</v>
       </c>
       <c r="AF10">
-        <v>43679.14580000001</v>
+        <v>48041.962</v>
       </c>
       <c r="AG10">
         <v>10</v>
@@ -1488,94 +1488,94 @@
         <v>60</v>
       </c>
       <c r="C11">
-        <v>29238782</v>
+        <v>5878546.7</v>
       </c>
       <c r="D11">
-        <v>114950</v>
+        <v>42334.5</v>
       </c>
       <c r="E11">
-        <v>13762.0261</v>
+        <v>9215.240399999999</v>
       </c>
       <c r="F11">
-        <v>8.363686499999998</v>
+        <v>6.80982</v>
       </c>
       <c r="G11">
-        <v>18.524785</v>
+        <v>10.50056</v>
       </c>
       <c r="H11">
-        <v>3.6122694</v>
+        <v>2.0527604</v>
       </c>
       <c r="I11">
-        <v>42.157898</v>
+        <v>35.51974999999999</v>
       </c>
       <c r="J11">
-        <v>20.803572</v>
+        <v>16.806122</v>
       </c>
       <c r="K11">
-        <v>19.006696</v>
+        <v>10.9856631</v>
       </c>
       <c r="L11">
-        <v>561.25874</v>
+        <v>539.09449</v>
       </c>
       <c r="M11">
-        <v>57.11232899999999</v>
+        <v>42.446927</v>
       </c>
       <c r="N11">
-        <v>2135562.5</v>
+        <v>458614.7000000001</v>
       </c>
       <c r="O11">
-        <v>92294.387</v>
+        <v>17353.6483</v>
       </c>
       <c r="P11">
-        <v>1131.65943</v>
+        <v>1312.28682</v>
       </c>
       <c r="Q11">
-        <v>4699.21525</v>
+        <v>857.3703400000001</v>
       </c>
       <c r="R11">
-        <v>82.98716400000001</v>
+        <v>46.585707</v>
       </c>
       <c r="S11">
-        <v>34.131946</v>
+        <v>15.504149</v>
       </c>
       <c r="T11">
-        <v>85498.40839999999</v>
+        <v>27062.441</v>
       </c>
       <c r="U11">
-        <v>2496.38057</v>
+        <v>1388.03942</v>
       </c>
       <c r="V11">
-        <v>39.544601</v>
+        <v>18.973864</v>
       </c>
       <c r="W11">
-        <v>145.83079</v>
+        <v>128.75499</v>
       </c>
       <c r="X11">
-        <v>82.84069</v>
+        <v>91.65134600000002</v>
       </c>
       <c r="Y11">
-        <v>323.4433</v>
+        <v>319.5612600000001</v>
       </c>
       <c r="Z11">
-        <v>167.88229</v>
+        <v>209.4359</v>
       </c>
       <c r="AA11">
-        <v>390.21117</v>
+        <v>364.3950800000001</v>
       </c>
       <c r="AB11">
-        <v>241.79227</v>
+        <v>277.21632</v>
       </c>
       <c r="AC11">
-        <v>401.20326</v>
+        <v>393.0960999999999</v>
       </c>
       <c r="AD11">
-        <v>372.5269</v>
+        <v>383.40212</v>
       </c>
       <c r="AE11">
-        <v>274.56242</v>
+        <v>275.78236</v>
       </c>
       <c r="AF11">
-        <v>43679.14580000001</v>
+        <v>48041.962</v>
       </c>
       <c r="AG11">
         <v>10</v>
@@ -1589,94 +1589,94 @@
         <v>70</v>
       </c>
       <c r="C12">
-        <v>29220312</v>
+        <v>5878546.7</v>
       </c>
       <c r="D12">
-        <v>113220.8</v>
+        <v>42334.5</v>
       </c>
       <c r="E12">
-        <v>12957.9131</v>
+        <v>8386.699500000001</v>
       </c>
       <c r="F12">
-        <v>8.312208599999998</v>
+        <v>6.80982</v>
       </c>
       <c r="G12">
-        <v>18.299631</v>
+        <v>10.50056</v>
       </c>
       <c r="H12">
-        <v>3.5779107</v>
+        <v>2.0527604</v>
       </c>
       <c r="I12">
-        <v>42.153317</v>
+        <v>35.51974999999999</v>
       </c>
       <c r="J12">
-        <v>20.796615</v>
+        <v>16.806122</v>
       </c>
       <c r="K12">
-        <v>19.006696</v>
+        <v>10.9856631</v>
       </c>
       <c r="L12">
-        <v>561.25874</v>
+        <v>539.09449</v>
       </c>
       <c r="M12">
-        <v>49.880966</v>
+        <v>42.446927</v>
       </c>
       <c r="N12">
-        <v>1964901.3</v>
+        <v>458614.7000000001</v>
       </c>
       <c r="O12">
-        <v>75445.61600000001</v>
+        <v>13822.0588</v>
       </c>
       <c r="P12">
-        <v>941.7364799999999</v>
+        <v>1111.19858</v>
       </c>
       <c r="Q12">
-        <v>3766.571454000001</v>
+        <v>857.3703400000001</v>
       </c>
       <c r="R12">
-        <v>69.550239</v>
+        <v>46.585707</v>
       </c>
       <c r="S12">
-        <v>34.131946</v>
+        <v>15.504149</v>
       </c>
       <c r="T12">
-        <v>67807.0284</v>
+        <v>27062.441</v>
       </c>
       <c r="U12">
-        <v>2462.81787</v>
+        <v>1388.03942</v>
       </c>
       <c r="V12">
-        <v>36.237749</v>
+        <v>18.973864</v>
       </c>
       <c r="W12">
-        <v>141.99764</v>
+        <v>128.75499</v>
       </c>
       <c r="X12">
-        <v>79.51084599999999</v>
+        <v>91.65134600000002</v>
       </c>
       <c r="Y12">
-        <v>323.18306</v>
+        <v>319.5612600000001</v>
       </c>
       <c r="Z12">
-        <v>166.14212</v>
+        <v>209.4359</v>
       </c>
       <c r="AA12">
-        <v>388.03784</v>
+        <v>364.3950800000001</v>
       </c>
       <c r="AB12">
-        <v>240.3816</v>
+        <v>277.21632</v>
       </c>
       <c r="AC12">
-        <v>401.1124</v>
+        <v>393.0960999999999</v>
       </c>
       <c r="AD12">
-        <v>369.94585</v>
+        <v>383.40212</v>
       </c>
       <c r="AE12">
-        <v>274.56242</v>
+        <v>275.78236</v>
       </c>
       <c r="AF12">
-        <v>33880.185</v>
+        <v>48041.962</v>
       </c>
       <c r="AG12">
         <v>10</v>
@@ -1690,94 +1690,94 @@
         <v>80</v>
       </c>
       <c r="C13">
-        <v>29220312</v>
+        <v>5878546.7</v>
       </c>
       <c r="D13">
-        <v>113220.8</v>
+        <v>42334.5</v>
       </c>
       <c r="E13">
-        <v>10069.659</v>
+        <v>7945.839599999999</v>
       </c>
       <c r="F13">
-        <v>8.312208599999998</v>
+        <v>6.80982</v>
       </c>
       <c r="G13">
-        <v>18.299631</v>
+        <v>10.50056</v>
       </c>
       <c r="H13">
-        <v>3.5779107</v>
+        <v>2.0527604</v>
       </c>
       <c r="I13">
-        <v>42.153317</v>
+        <v>35.51974999999999</v>
       </c>
       <c r="J13">
-        <v>20.796615</v>
+        <v>16.806122</v>
       </c>
       <c r="K13">
-        <v>19.006696</v>
+        <v>10.9856631</v>
       </c>
       <c r="L13">
-        <v>561.25874</v>
+        <v>539.09449</v>
       </c>
       <c r="M13">
-        <v>49.880966</v>
+        <v>42.446927</v>
       </c>
       <c r="N13">
-        <v>1964901.3</v>
+        <v>458614.7000000001</v>
       </c>
       <c r="O13">
-        <v>67629.821</v>
+        <v>13822.0588</v>
       </c>
       <c r="P13">
-        <v>788.11284</v>
+        <v>1076.9885</v>
       </c>
       <c r="Q13">
-        <v>2397.575674</v>
+        <v>803.82305</v>
       </c>
       <c r="R13">
-        <v>69.550239</v>
+        <v>46.585707</v>
       </c>
       <c r="S13">
-        <v>33.39196099999999</v>
+        <v>15.504149</v>
       </c>
       <c r="T13">
-        <v>67582.76939999999</v>
+        <v>27062.441</v>
       </c>
       <c r="U13">
-        <v>2100.439460000001</v>
+        <v>1388.03942</v>
       </c>
       <c r="V13">
-        <v>36.237749</v>
+        <v>18.973864</v>
       </c>
       <c r="W13">
-        <v>134.9017</v>
+        <v>128.75499</v>
       </c>
       <c r="X13">
-        <v>77.95582099999999</v>
+        <v>90.27913200000002</v>
       </c>
       <c r="Y13">
-        <v>323.18306</v>
+        <v>319.5612600000001</v>
       </c>
       <c r="Z13">
-        <v>166.14212</v>
+        <v>209.4359</v>
       </c>
       <c r="AA13">
-        <v>388.03784</v>
+        <v>364.3950800000001</v>
       </c>
       <c r="AB13">
-        <v>237.91948</v>
+        <v>277.21632</v>
       </c>
       <c r="AC13">
-        <v>401.1124</v>
+        <v>393.0960999999999</v>
       </c>
       <c r="AD13">
-        <v>369.94585</v>
+        <v>383.40212</v>
       </c>
       <c r="AE13">
-        <v>274.56242</v>
+        <v>275.78236</v>
       </c>
       <c r="AF13">
-        <v>32711.7889</v>
+        <v>48041.962</v>
       </c>
       <c r="AG13">
         <v>10</v>
@@ -1791,94 +1791,94 @@
         <v>90</v>
       </c>
       <c r="C14">
-        <v>29220312</v>
+        <v>5878546.7</v>
       </c>
       <c r="D14">
-        <v>109333.4</v>
+        <v>42334.5</v>
       </c>
       <c r="E14">
-        <v>9946.360900000001</v>
+        <v>7885.356800000001</v>
       </c>
       <c r="F14">
-        <v>8.312208599999998</v>
+        <v>6.80982</v>
       </c>
       <c r="G14">
-        <v>18.299631</v>
+        <v>10.50056</v>
       </c>
       <c r="H14">
-        <v>3.5779107</v>
+        <v>2.0527604</v>
       </c>
       <c r="I14">
-        <v>42.153317</v>
+        <v>35.51974999999999</v>
       </c>
       <c r="J14">
-        <v>20.796615</v>
+        <v>16.806122</v>
       </c>
       <c r="K14">
-        <v>19.006696</v>
+        <v>10.9856631</v>
       </c>
       <c r="L14">
-        <v>561.25874</v>
+        <v>539.09449</v>
       </c>
       <c r="M14">
-        <v>49.524716</v>
+        <v>42.446927</v>
       </c>
       <c r="N14">
-        <v>1964901.3</v>
+        <v>458614.7000000001</v>
       </c>
       <c r="O14">
-        <v>42802.306</v>
+        <v>13822.0588</v>
       </c>
       <c r="P14">
-        <v>735.46827</v>
+        <v>978.5083710000001</v>
       </c>
       <c r="Q14">
-        <v>2221.998474</v>
+        <v>711.3615100000001</v>
       </c>
       <c r="R14">
-        <v>66.38736300000001</v>
+        <v>46.585707</v>
       </c>
       <c r="S14">
-        <v>33.39196099999999</v>
+        <v>15.504149</v>
       </c>
       <c r="T14">
-        <v>42137.4914</v>
+        <v>27062.441</v>
       </c>
       <c r="U14">
-        <v>2083.22621</v>
+        <v>1388.03942</v>
       </c>
       <c r="V14">
-        <v>35.058647</v>
+        <v>18.973864</v>
       </c>
       <c r="W14">
-        <v>134.9017</v>
+        <v>128.75499</v>
       </c>
       <c r="X14">
-        <v>74.94290799999999</v>
+        <v>90.27913200000002</v>
       </c>
       <c r="Y14">
-        <v>323.18306</v>
+        <v>319.5612600000001</v>
       </c>
       <c r="Z14">
-        <v>165.65779</v>
+        <v>209.4359</v>
       </c>
       <c r="AA14">
-        <v>387.3002099999999</v>
+        <v>364.3950800000001</v>
       </c>
       <c r="AB14">
-        <v>237.91948</v>
+        <v>276.65061</v>
       </c>
       <c r="AC14">
-        <v>401.10253</v>
+        <v>393.0960999999999</v>
       </c>
       <c r="AD14">
-        <v>369.51963</v>
+        <v>383.40212</v>
       </c>
       <c r="AE14">
-        <v>274.56242</v>
+        <v>275.78236</v>
       </c>
       <c r="AF14">
-        <v>31526.4239</v>
+        <v>48041.962</v>
       </c>
       <c r="AG14">
         <v>10</v>
@@ -1892,94 +1892,94 @@
         <v>100</v>
       </c>
       <c r="C15">
-        <v>29220312</v>
+        <v>5878546.7</v>
       </c>
       <c r="D15">
-        <v>109333.4</v>
+        <v>42334.5</v>
       </c>
       <c r="E15">
-        <v>9946.360900000001</v>
+        <v>7608.987300000001</v>
       </c>
       <c r="F15">
-        <v>8.312208599999998</v>
+        <v>6.80982</v>
       </c>
       <c r="G15">
-        <v>18.073295</v>
+        <v>10.50056</v>
       </c>
       <c r="H15">
-        <v>3.5779107</v>
+        <v>2.0527604</v>
       </c>
       <c r="I15">
-        <v>42.153317</v>
+        <v>35.51974999999999</v>
       </c>
       <c r="J15">
-        <v>20.796615</v>
+        <v>16.806122</v>
       </c>
       <c r="K15">
-        <v>19.006696</v>
+        <v>10.9856631</v>
       </c>
       <c r="L15">
-        <v>561.04351</v>
+        <v>539.09449</v>
       </c>
       <c r="M15">
-        <v>44.76421800000001</v>
+        <v>42.446927</v>
       </c>
       <c r="N15">
-        <v>1964901.3</v>
+        <v>458614.7000000001</v>
       </c>
       <c r="O15">
-        <v>42798.251</v>
+        <v>13822.0588</v>
       </c>
       <c r="P15">
-        <v>683.9960100000001</v>
+        <v>539.448982</v>
       </c>
       <c r="Q15">
-        <v>1871.795054</v>
+        <v>645.13573</v>
       </c>
       <c r="R15">
-        <v>66.38736300000001</v>
+        <v>46.585707</v>
       </c>
       <c r="S15">
-        <v>33.39196099999999</v>
+        <v>15.504149</v>
       </c>
       <c r="T15">
-        <v>35353.49339999999</v>
+        <v>27062.441</v>
       </c>
       <c r="U15">
-        <v>2030.26401</v>
+        <v>1388.03942</v>
       </c>
       <c r="V15">
-        <v>35.058647</v>
+        <v>18.973864</v>
       </c>
       <c r="W15">
-        <v>131.24023</v>
+        <v>127.97204</v>
       </c>
       <c r="X15">
-        <v>74.18148799999999</v>
+        <v>90.27913200000002</v>
       </c>
       <c r="Y15">
-        <v>322.9037300000001</v>
+        <v>314.62842</v>
       </c>
       <c r="Z15">
-        <v>165.38093</v>
+        <v>209.07846</v>
       </c>
       <c r="AA15">
-        <v>382.59901</v>
+        <v>364.3950800000001</v>
       </c>
       <c r="AB15">
-        <v>234.4182</v>
+        <v>276.65061</v>
       </c>
       <c r="AC15">
-        <v>401.10253</v>
+        <v>393.0960999999999</v>
       </c>
       <c r="AD15">
-        <v>369.51963</v>
+        <v>383.40212</v>
       </c>
       <c r="AE15">
-        <v>273.46629</v>
+        <v>275.78236</v>
       </c>
       <c r="AF15">
-        <v>27125.4392</v>
+        <v>48041.962</v>
       </c>
       <c r="AG15">
         <v>10</v>

--- a/code/results_cellsMejorado/results_cec2017_10.xlsx
+++ b/code/results_cellsMejorado/results_cec2017_10.xlsx
@@ -1084,94 +1084,94 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>5878546.7</v>
+        <v>6301832</v>
       </c>
       <c r="D7">
-        <v>63875.5</v>
+        <v>109809.1</v>
       </c>
       <c r="E7">
-        <v>13923.1276</v>
+        <v>16726.234</v>
       </c>
       <c r="F7">
-        <v>6.80982</v>
+        <v>6.658906900000001</v>
       </c>
       <c r="G7">
         <v>10.50056</v>
       </c>
       <c r="H7">
-        <v>2.0527604</v>
+        <v>2.169344700000001</v>
       </c>
       <c r="I7">
-        <v>35.51974999999999</v>
+        <v>35.85303</v>
       </c>
       <c r="J7">
-        <v>16.806122</v>
+        <v>17.435453</v>
       </c>
       <c r="K7">
-        <v>12.0645398</v>
+        <v>16.16987</v>
       </c>
       <c r="L7">
-        <v>542.16895</v>
+        <v>567.63803</v>
       </c>
       <c r="M7">
-        <v>84.91696199999998</v>
+        <v>104.089248</v>
       </c>
       <c r="N7">
         <v>458614.7000000001</v>
       </c>
       <c r="O7">
-        <v>20977.9063</v>
+        <v>34851.534</v>
       </c>
       <c r="P7">
-        <v>7345.2186</v>
+        <v>3492.13468</v>
       </c>
       <c r="Q7">
-        <v>988.77836</v>
+        <v>1128.6544</v>
       </c>
       <c r="R7">
-        <v>53.80029</v>
+        <v>54.434099</v>
       </c>
       <c r="S7">
-        <v>16.158437</v>
+        <v>16.56282</v>
       </c>
       <c r="T7">
-        <v>32984.338</v>
+        <v>36298.499</v>
       </c>
       <c r="U7">
-        <v>2125.8427</v>
+        <v>1810.18116</v>
       </c>
       <c r="V7">
-        <v>19.80549</v>
+        <v>20.163958</v>
       </c>
       <c r="W7">
-        <v>130.53878</v>
+        <v>134.1685</v>
       </c>
       <c r="X7">
-        <v>101.395944</v>
+        <v>98.593622</v>
       </c>
       <c r="Y7">
-        <v>319.5612600000001</v>
+        <v>323.4524</v>
       </c>
       <c r="Z7">
-        <v>212.42041</v>
+        <v>193.34534</v>
       </c>
       <c r="AA7">
-        <v>383.90977</v>
+        <v>406.3435800000001</v>
       </c>
       <c r="AB7">
-        <v>281.56003</v>
+        <v>287.80521</v>
       </c>
       <c r="AC7">
         <v>393.0960999999999</v>
       </c>
       <c r="AD7">
-        <v>404.57622</v>
+        <v>431.24797</v>
       </c>
       <c r="AE7">
-        <v>276.08951</v>
+        <v>280.136</v>
       </c>
       <c r="AF7">
-        <v>69757.667</v>
+        <v>71183.61799999999</v>
       </c>
       <c r="AG7">
         <v>10</v>
@@ -1185,94 +1185,94 @@
         <v>30</v>
       </c>
       <c r="C8">
-        <v>5878546.7</v>
+        <v>6301832</v>
       </c>
       <c r="D8">
-        <v>46853.5</v>
+        <v>107145.8</v>
       </c>
       <c r="E8">
-        <v>13521.3796</v>
+        <v>11931.9746</v>
       </c>
       <c r="F8">
-        <v>6.80982</v>
+        <v>6.559796</v>
       </c>
       <c r="G8">
         <v>10.50056</v>
       </c>
       <c r="H8">
-        <v>2.0527604</v>
+        <v>2.169344700000001</v>
       </c>
       <c r="I8">
-        <v>35.51974999999999</v>
+        <v>35.85303</v>
       </c>
       <c r="J8">
-        <v>16.806122</v>
+        <v>17.435453</v>
       </c>
       <c r="K8">
-        <v>10.9856631</v>
+        <v>15.5290867</v>
       </c>
       <c r="L8">
-        <v>539.09449</v>
+        <v>567.63803</v>
       </c>
       <c r="M8">
-        <v>69.368934</v>
+        <v>70.733104</v>
       </c>
       <c r="N8">
         <v>458614.7000000001</v>
       </c>
       <c r="O8">
-        <v>20977.7973</v>
+        <v>33297.902</v>
       </c>
       <c r="P8">
-        <v>2385.87944</v>
+        <v>2276.26698</v>
       </c>
       <c r="Q8">
-        <v>904.4357</v>
+        <v>1128.6544</v>
       </c>
       <c r="R8">
-        <v>51.441531</v>
+        <v>53.647609</v>
       </c>
       <c r="S8">
-        <v>15.504149</v>
+        <v>16.56282</v>
       </c>
       <c r="T8">
-        <v>30803.45</v>
+        <v>33769.389</v>
       </c>
       <c r="U8">
-        <v>1706.57031</v>
+        <v>1580.463908</v>
       </c>
       <c r="V8">
-        <v>18.973864</v>
+        <v>20.163958</v>
       </c>
       <c r="W8">
-        <v>130.24877</v>
+        <v>131.40944</v>
       </c>
       <c r="X8">
-        <v>94.23572600000001</v>
+        <v>97.346192</v>
       </c>
       <c r="Y8">
-        <v>319.5612600000001</v>
+        <v>323.4524</v>
       </c>
       <c r="Z8">
-        <v>210.49296</v>
+        <v>189.5625</v>
       </c>
       <c r="AA8">
-        <v>364.3950800000001</v>
+        <v>406.3435800000001</v>
       </c>
       <c r="AB8">
-        <v>281.56003</v>
+        <v>287.80521</v>
       </c>
       <c r="AC8">
         <v>393.0960999999999</v>
       </c>
       <c r="AD8">
-        <v>388.46049</v>
+        <v>412.37285</v>
       </c>
       <c r="AE8">
-        <v>275.78236</v>
+        <v>280.136</v>
       </c>
       <c r="AF8">
-        <v>48363.991</v>
+        <v>71183.61799999999</v>
       </c>
       <c r="AG8">
         <v>10</v>
@@ -1286,94 +1286,94 @@
         <v>40</v>
       </c>
       <c r="C9">
-        <v>5878546.7</v>
+        <v>6301832</v>
       </c>
       <c r="D9">
-        <v>46652.5</v>
+        <v>107145.8</v>
       </c>
       <c r="E9">
-        <v>10776.6093</v>
+        <v>10417.8628</v>
       </c>
       <c r="F9">
-        <v>6.80982</v>
+        <v>6.559796</v>
       </c>
       <c r="G9">
         <v>10.50056</v>
       </c>
       <c r="H9">
-        <v>2.0527604</v>
+        <v>2.169344700000001</v>
       </c>
       <c r="I9">
-        <v>35.51974999999999</v>
+        <v>35.85303</v>
       </c>
       <c r="J9">
-        <v>16.806122</v>
+        <v>17.435453</v>
       </c>
       <c r="K9">
-        <v>10.9856631</v>
+        <v>15.5290867</v>
       </c>
       <c r="L9">
-        <v>539.09449</v>
+        <v>567.63803</v>
       </c>
       <c r="M9">
-        <v>47.208091</v>
+        <v>66.35981699999999</v>
       </c>
       <c r="N9">
         <v>458614.7000000001</v>
       </c>
       <c r="O9">
-        <v>18643.0833</v>
+        <v>33297.902</v>
       </c>
       <c r="P9">
-        <v>1740.67511</v>
+        <v>1535.3084</v>
       </c>
       <c r="Q9">
-        <v>875.8667000000002</v>
+        <v>1032.45683</v>
       </c>
       <c r="R9">
-        <v>46.585707</v>
+        <v>53.647609</v>
       </c>
       <c r="S9">
-        <v>15.504149</v>
+        <v>16.56282</v>
       </c>
       <c r="T9">
-        <v>30803.45</v>
+        <v>33769.389</v>
       </c>
       <c r="U9">
-        <v>1539.24099</v>
+        <v>1580.463908</v>
       </c>
       <c r="V9">
-        <v>18.973864</v>
+        <v>20.163958</v>
       </c>
       <c r="W9">
-        <v>129.08682</v>
+        <v>129.39203</v>
       </c>
       <c r="X9">
-        <v>91.83286600000001</v>
+        <v>97.346192</v>
       </c>
       <c r="Y9">
-        <v>319.5612600000001</v>
+        <v>323.4524</v>
       </c>
       <c r="Z9">
-        <v>210.49296</v>
+        <v>189.5625</v>
       </c>
       <c r="AA9">
-        <v>364.3950800000001</v>
+        <v>406.3435800000001</v>
       </c>
       <c r="AB9">
-        <v>279.41753</v>
+        <v>287.27462</v>
       </c>
       <c r="AC9">
         <v>393.0960999999999</v>
       </c>
       <c r="AD9">
-        <v>386.00204</v>
+        <v>412.37285</v>
       </c>
       <c r="AE9">
-        <v>275.78236</v>
+        <v>280.136</v>
       </c>
       <c r="AF9">
-        <v>48041.962</v>
+        <v>71183.61799999999</v>
       </c>
       <c r="AG9">
         <v>10</v>
@@ -1387,94 +1387,94 @@
         <v>50</v>
       </c>
       <c r="C10">
-        <v>5878546.7</v>
+        <v>6301832</v>
       </c>
       <c r="D10">
-        <v>42334.5</v>
+        <v>101319.2</v>
       </c>
       <c r="E10">
-        <v>10027.4303</v>
+        <v>10173.1698</v>
       </c>
       <c r="F10">
-        <v>6.80982</v>
+        <v>6.559796</v>
       </c>
       <c r="G10">
         <v>10.50056</v>
       </c>
       <c r="H10">
-        <v>2.0527604</v>
+        <v>2.169344700000001</v>
       </c>
       <c r="I10">
-        <v>35.51974999999999</v>
+        <v>35.85303</v>
       </c>
       <c r="J10">
-        <v>16.806122</v>
+        <v>17.435453</v>
       </c>
       <c r="K10">
-        <v>10.9856631</v>
+        <v>15.5290867</v>
       </c>
       <c r="L10">
-        <v>539.09449</v>
+        <v>567.63803</v>
       </c>
       <c r="M10">
-        <v>42.446927</v>
+        <v>59.28259300000001</v>
       </c>
       <c r="N10">
         <v>458614.7000000001</v>
       </c>
       <c r="O10">
-        <v>17353.6483</v>
+        <v>30920.60399999999</v>
       </c>
       <c r="P10">
-        <v>1508.36298</v>
+        <v>1212.4311</v>
       </c>
       <c r="Q10">
-        <v>875.8667000000002</v>
+        <v>941.51384</v>
       </c>
       <c r="R10">
-        <v>46.585707</v>
+        <v>52.083253</v>
       </c>
       <c r="S10">
-        <v>15.504149</v>
+        <v>16.56282</v>
       </c>
       <c r="T10">
-        <v>27520.227</v>
+        <v>33769.389</v>
       </c>
       <c r="U10">
-        <v>1539.24099</v>
+        <v>1499.826158</v>
       </c>
       <c r="V10">
-        <v>18.973864</v>
+        <v>20.163958</v>
       </c>
       <c r="W10">
-        <v>128.75499</v>
+        <v>129.39203</v>
       </c>
       <c r="X10">
-        <v>91.83286600000001</v>
+        <v>95.19490899999998</v>
       </c>
       <c r="Y10">
-        <v>319.5612600000001</v>
+        <v>323.4524</v>
       </c>
       <c r="Z10">
-        <v>209.67973</v>
+        <v>185.72976</v>
       </c>
       <c r="AA10">
-        <v>364.3950800000001</v>
+        <v>406.3435800000001</v>
       </c>
       <c r="AB10">
-        <v>277.21632</v>
+        <v>287.27462</v>
       </c>
       <c r="AC10">
         <v>393.0960999999999</v>
       </c>
       <c r="AD10">
-        <v>383.40212</v>
+        <v>402.66479</v>
       </c>
       <c r="AE10">
-        <v>275.78236</v>
+        <v>280.136</v>
       </c>
       <c r="AF10">
-        <v>48041.962</v>
+        <v>68515.55899999999</v>
       </c>
       <c r="AG10">
         <v>10</v>
@@ -1488,94 +1488,94 @@
         <v>60</v>
       </c>
       <c r="C11">
-        <v>5878546.7</v>
+        <v>6301832</v>
       </c>
       <c r="D11">
-        <v>42334.5</v>
+        <v>99675</v>
       </c>
       <c r="E11">
-        <v>9215.240399999999</v>
+        <v>9749.7698</v>
       </c>
       <c r="F11">
-        <v>6.80982</v>
+        <v>6.559796</v>
       </c>
       <c r="G11">
         <v>10.50056</v>
       </c>
       <c r="H11">
-        <v>2.0527604</v>
+        <v>2.169344700000001</v>
       </c>
       <c r="I11">
-        <v>35.51974999999999</v>
+        <v>35.85303</v>
       </c>
       <c r="J11">
-        <v>16.806122</v>
+        <v>17.435453</v>
       </c>
       <c r="K11">
-        <v>10.9856631</v>
+        <v>15.5290867</v>
       </c>
       <c r="L11">
-        <v>539.09449</v>
+        <v>515.39622</v>
       </c>
       <c r="M11">
-        <v>42.446927</v>
+        <v>48.073772</v>
       </c>
       <c r="N11">
         <v>458614.7000000001</v>
       </c>
       <c r="O11">
-        <v>17353.6483</v>
+        <v>30920.60399999999</v>
       </c>
       <c r="P11">
-        <v>1312.28682</v>
+        <v>881.1088999999999</v>
       </c>
       <c r="Q11">
-        <v>857.3703400000001</v>
+        <v>935.8600899999999</v>
       </c>
       <c r="R11">
-        <v>46.585707</v>
+        <v>52.083253</v>
       </c>
       <c r="S11">
-        <v>15.504149</v>
+        <v>16.56282</v>
       </c>
       <c r="T11">
-        <v>27062.441</v>
+        <v>33769.389</v>
       </c>
       <c r="U11">
-        <v>1388.03942</v>
+        <v>1280.515523</v>
       </c>
       <c r="V11">
-        <v>18.973864</v>
+        <v>20.163958</v>
       </c>
       <c r="W11">
-        <v>128.75499</v>
+        <v>122.45853</v>
       </c>
       <c r="X11">
-        <v>91.65134600000002</v>
+        <v>79.83253500000001</v>
       </c>
       <c r="Y11">
-        <v>319.5612600000001</v>
+        <v>323.4524</v>
       </c>
       <c r="Z11">
-        <v>209.4359</v>
+        <v>183.31437</v>
       </c>
       <c r="AA11">
-        <v>364.3950800000001</v>
+        <v>396.4462000000001</v>
       </c>
       <c r="AB11">
-        <v>277.21632</v>
+        <v>276.57463</v>
       </c>
       <c r="AC11">
         <v>393.0960999999999</v>
       </c>
       <c r="AD11">
-        <v>383.40212</v>
+        <v>369.6698</v>
       </c>
       <c r="AE11">
-        <v>275.78236</v>
+        <v>277.4502</v>
       </c>
       <c r="AF11">
-        <v>48041.962</v>
+        <v>40571.614</v>
       </c>
       <c r="AG11">
         <v>10</v>
@@ -1589,94 +1589,94 @@
         <v>70</v>
       </c>
       <c r="C12">
-        <v>5878546.7</v>
+        <v>5995211.4</v>
       </c>
       <c r="D12">
-        <v>42334.5</v>
+        <v>49997.7</v>
       </c>
       <c r="E12">
-        <v>8386.699500000001</v>
+        <v>9737.712800000001</v>
       </c>
       <c r="F12">
-        <v>6.80982</v>
+        <v>5.754294700000001</v>
       </c>
       <c r="G12">
-        <v>10.50056</v>
+        <v>10.3696903</v>
       </c>
       <c r="H12">
-        <v>2.0527604</v>
+        <v>1.8787774</v>
       </c>
       <c r="I12">
-        <v>35.51974999999999</v>
+        <v>34.40019599999999</v>
       </c>
       <c r="J12">
-        <v>16.806122</v>
+        <v>17.204627</v>
       </c>
       <c r="K12">
-        <v>10.9856631</v>
+        <v>11.4800524</v>
       </c>
       <c r="L12">
-        <v>539.09449</v>
+        <v>396.6074960000001</v>
       </c>
       <c r="M12">
-        <v>42.446927</v>
+        <v>36.742221</v>
       </c>
       <c r="N12">
         <v>458614.7000000001</v>
       </c>
       <c r="O12">
-        <v>13822.0588</v>
+        <v>29822.066</v>
       </c>
       <c r="P12">
-        <v>1111.19858</v>
+        <v>658.40769</v>
       </c>
       <c r="Q12">
-        <v>857.3703400000001</v>
+        <v>861.2638199999999</v>
       </c>
       <c r="R12">
-        <v>46.585707</v>
+        <v>45.819263</v>
       </c>
       <c r="S12">
-        <v>15.504149</v>
+        <v>16.56282</v>
       </c>
       <c r="T12">
-        <v>27062.441</v>
+        <v>23260.3486</v>
       </c>
       <c r="U12">
-        <v>1388.03942</v>
+        <v>956.1282299999999</v>
       </c>
       <c r="V12">
-        <v>18.973864</v>
+        <v>20.163958</v>
       </c>
       <c r="W12">
-        <v>128.75499</v>
+        <v>118.91566</v>
       </c>
       <c r="X12">
-        <v>91.65134600000002</v>
+        <v>72.064076</v>
       </c>
       <c r="Y12">
-        <v>319.5612600000001</v>
+        <v>320.57643</v>
       </c>
       <c r="Z12">
-        <v>209.4359</v>
+        <v>160.7564</v>
       </c>
       <c r="AA12">
-        <v>364.3950800000001</v>
+        <v>363.8743000000001</v>
       </c>
       <c r="AB12">
-        <v>277.21632</v>
+        <v>233.167188</v>
       </c>
       <c r="AC12">
-        <v>393.0960999999999</v>
+        <v>393.0237099999999</v>
       </c>
       <c r="AD12">
-        <v>383.40212</v>
+        <v>332.7063450000001</v>
       </c>
       <c r="AE12">
-        <v>275.78236</v>
+        <v>276.35072</v>
       </c>
       <c r="AF12">
-        <v>48041.962</v>
+        <v>31228.0778</v>
       </c>
       <c r="AG12">
         <v>10</v>
@@ -1690,94 +1690,94 @@
         <v>80</v>
       </c>
       <c r="C13">
-        <v>5878546.7</v>
+        <v>5776764.6</v>
       </c>
       <c r="D13">
-        <v>42334.5</v>
+        <v>47266.3</v>
       </c>
       <c r="E13">
-        <v>7945.839599999999</v>
+        <v>9718.0268</v>
       </c>
       <c r="F13">
-        <v>6.80982</v>
+        <v>5.754294700000001</v>
       </c>
       <c r="G13">
-        <v>10.50056</v>
+        <v>10.3535155</v>
       </c>
       <c r="H13">
-        <v>2.0527604</v>
+        <v>1.7854613</v>
       </c>
       <c r="I13">
-        <v>35.51974999999999</v>
+        <v>34.40019599999999</v>
       </c>
       <c r="J13">
-        <v>16.806122</v>
+        <v>16.396242</v>
       </c>
       <c r="K13">
-        <v>10.9856631</v>
+        <v>10.4458515</v>
       </c>
       <c r="L13">
-        <v>539.09449</v>
+        <v>390.2811460000001</v>
       </c>
       <c r="M13">
-        <v>42.446927</v>
+        <v>35.816368</v>
       </c>
       <c r="N13">
         <v>458614.7000000001</v>
       </c>
       <c r="O13">
-        <v>13822.0588</v>
+        <v>24087.0245</v>
       </c>
       <c r="P13">
-        <v>1076.9885</v>
+        <v>577.03736</v>
       </c>
       <c r="Q13">
-        <v>803.82305</v>
+        <v>861.2638199999999</v>
       </c>
       <c r="R13">
-        <v>46.585707</v>
+        <v>45.818918</v>
       </c>
       <c r="S13">
-        <v>15.504149</v>
+        <v>16.56282</v>
       </c>
       <c r="T13">
-        <v>27062.441</v>
+        <v>23260.3401</v>
       </c>
       <c r="U13">
-        <v>1388.03942</v>
+        <v>647.7321400000001</v>
       </c>
       <c r="V13">
-        <v>18.973864</v>
+        <v>18.967324</v>
       </c>
       <c r="W13">
-        <v>128.75499</v>
+        <v>118.58722</v>
       </c>
       <c r="X13">
-        <v>90.27913200000002</v>
+        <v>70.30503300000001</v>
       </c>
       <c r="Y13">
-        <v>319.5612600000001</v>
+        <v>320.15789</v>
       </c>
       <c r="Z13">
-        <v>209.4359</v>
+        <v>156.57514</v>
       </c>
       <c r="AA13">
-        <v>364.3950800000001</v>
+        <v>355.11202</v>
       </c>
       <c r="AB13">
-        <v>277.21632</v>
+        <v>202.888319</v>
       </c>
       <c r="AC13">
-        <v>393.0960999999999</v>
+        <v>392.9869199999999</v>
       </c>
       <c r="AD13">
-        <v>383.40212</v>
+        <v>331.1068750000001</v>
       </c>
       <c r="AE13">
-        <v>275.78236</v>
+        <v>276.35072</v>
       </c>
       <c r="AF13">
-        <v>48041.962</v>
+        <v>28409.4398</v>
       </c>
       <c r="AG13">
         <v>10</v>
@@ -1791,94 +1791,94 @@
         <v>90</v>
       </c>
       <c r="C14">
-        <v>5878546.7</v>
+        <v>5776764.6</v>
       </c>
       <c r="D14">
-        <v>42334.5</v>
+        <v>47266.3</v>
       </c>
       <c r="E14">
-        <v>7885.356800000001</v>
+        <v>9236.191000000001</v>
       </c>
       <c r="F14">
-        <v>6.80982</v>
+        <v>5.754294700000001</v>
       </c>
       <c r="G14">
-        <v>10.50056</v>
+        <v>10.3535155</v>
       </c>
       <c r="H14">
-        <v>2.0527604</v>
+        <v>1.7854613</v>
       </c>
       <c r="I14">
-        <v>35.51974999999999</v>
+        <v>34.40019599999999</v>
       </c>
       <c r="J14">
-        <v>16.806122</v>
+        <v>16.396242</v>
       </c>
       <c r="K14">
-        <v>10.9856631</v>
+        <v>10.4402165</v>
       </c>
       <c r="L14">
-        <v>539.09449</v>
+        <v>381.348126</v>
       </c>
       <c r="M14">
-        <v>42.446927</v>
+        <v>35.816368</v>
       </c>
       <c r="N14">
         <v>458614.7000000001</v>
       </c>
       <c r="O14">
-        <v>13822.0588</v>
+        <v>23994.5295</v>
       </c>
       <c r="P14">
-        <v>978.5083710000001</v>
+        <v>575.2643700000001</v>
       </c>
       <c r="Q14">
-        <v>711.3615100000001</v>
+        <v>861.2638199999999</v>
       </c>
       <c r="R14">
-        <v>46.585707</v>
+        <v>45.818918</v>
       </c>
       <c r="S14">
-        <v>15.504149</v>
+        <v>16.56282</v>
       </c>
       <c r="T14">
-        <v>27062.441</v>
+        <v>21814.2201</v>
       </c>
       <c r="U14">
-        <v>1388.03942</v>
+        <v>610.9789800000001</v>
       </c>
       <c r="V14">
-        <v>18.973864</v>
+        <v>18.967324</v>
       </c>
       <c r="W14">
-        <v>128.75499</v>
+        <v>118.58722</v>
       </c>
       <c r="X14">
-        <v>90.27913200000002</v>
+        <v>69.65235199999999</v>
       </c>
       <c r="Y14">
-        <v>319.5612600000001</v>
+        <v>320.15789</v>
       </c>
       <c r="Z14">
-        <v>209.4359</v>
+        <v>156.57514</v>
       </c>
       <c r="AA14">
-        <v>364.3950800000001</v>
+        <v>352.12046</v>
       </c>
       <c r="AB14">
-        <v>276.65061</v>
+        <v>202.888319</v>
       </c>
       <c r="AC14">
-        <v>393.0960999999999</v>
+        <v>392.9869199999999</v>
       </c>
       <c r="AD14">
-        <v>383.40212</v>
+        <v>331.1068750000001</v>
       </c>
       <c r="AE14">
-        <v>275.78236</v>
+        <v>276.35072</v>
       </c>
       <c r="AF14">
-        <v>48041.962</v>
+        <v>28409.4398</v>
       </c>
       <c r="AG14">
         <v>10</v>
@@ -1892,94 +1892,94 @@
         <v>100</v>
       </c>
       <c r="C15">
-        <v>5878546.7</v>
+        <v>5776764.6</v>
       </c>
       <c r="D15">
-        <v>42334.5</v>
+        <v>47266.3</v>
       </c>
       <c r="E15">
-        <v>7608.987300000001</v>
+        <v>8685.637900000002</v>
       </c>
       <c r="F15">
-        <v>6.80982</v>
+        <v>5.754294700000001</v>
       </c>
       <c r="G15">
-        <v>10.50056</v>
+        <v>10.3535155</v>
       </c>
       <c r="H15">
-        <v>2.0527604</v>
+        <v>1.7854613</v>
       </c>
       <c r="I15">
-        <v>35.51974999999999</v>
+        <v>34.40019599999999</v>
       </c>
       <c r="J15">
-        <v>16.806122</v>
+        <v>16.396242</v>
       </c>
       <c r="K15">
-        <v>10.9856631</v>
+        <v>10.4402165</v>
       </c>
       <c r="L15">
-        <v>539.09449</v>
+        <v>381.348126</v>
       </c>
       <c r="M15">
-        <v>42.446927</v>
+        <v>35.816368</v>
       </c>
       <c r="N15">
         <v>458614.7000000001</v>
       </c>
       <c r="O15">
-        <v>13822.0588</v>
+        <v>23994.5295</v>
       </c>
       <c r="P15">
-        <v>539.448982</v>
+        <v>460.37185</v>
       </c>
       <c r="Q15">
-        <v>645.13573</v>
+        <v>861.2638199999999</v>
       </c>
       <c r="R15">
-        <v>46.585707</v>
+        <v>45.100607</v>
       </c>
       <c r="S15">
-        <v>15.504149</v>
+        <v>16.56282</v>
       </c>
       <c r="T15">
-        <v>27062.441</v>
+        <v>21814.2201</v>
       </c>
       <c r="U15">
-        <v>1388.03942</v>
+        <v>593.9299800000001</v>
       </c>
       <c r="V15">
-        <v>18.973864</v>
+        <v>18.967324</v>
       </c>
       <c r="W15">
-        <v>127.97204</v>
+        <v>118.58722</v>
       </c>
       <c r="X15">
-        <v>90.27913200000002</v>
+        <v>69.65235199999999</v>
       </c>
       <c r="Y15">
-        <v>314.62842</v>
+        <v>320.15789</v>
       </c>
       <c r="Z15">
-        <v>209.07846</v>
+        <v>156.57514</v>
       </c>
       <c r="AA15">
-        <v>364.3950800000001</v>
+        <v>352.12046</v>
       </c>
       <c r="AB15">
-        <v>276.65061</v>
+        <v>202.888319</v>
       </c>
       <c r="AC15">
-        <v>393.0960999999999</v>
+        <v>392.9869199999999</v>
       </c>
       <c r="AD15">
-        <v>383.40212</v>
+        <v>331.1068750000001</v>
       </c>
       <c r="AE15">
-        <v>275.78236</v>
+        <v>276.35072</v>
       </c>
       <c r="AF15">
-        <v>48041.962</v>
+        <v>28409.4398</v>
       </c>
       <c r="AG15">
         <v>10</v>
